--- a/WECC and NPCC Systems/Network Topology/Network_Topology_NPCC.xlsx
+++ b/WECC and NPCC Systems/Network Topology/Network_Topology_NPCC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qzhan\ENLITEN-Grid-Econ-Data\WECC_NPCC_Systems\Topology\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qzhan\Dropbox\Journal\Scientific Data\ENLITEN-Grid-Econ-Data\WECC and NPCC Systems\Network Topology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519FF794-E0D3-4DA9-BB49-DCB88FFB3462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C1BAB4-98C3-4E03-AE6F-DEC863C15381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57525" yWindow="3135" windowWidth="17100" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="356">
   <si>
     <t>idx</t>
   </si>
@@ -1086,6 +1086,9 @@
   </si>
   <si>
     <t>Line_233</t>
+  </si>
+  <si>
+    <t>Bus Coordinates Upon Request to CURENT LTB Team</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1140,17 +1143,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,11 +1473,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P140" sqref="P140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1490,10 +1507,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>-72.165385999999998</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>41.314960999999997</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1507,10 +1524,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>-72.103713999999997</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>41.428814000000003</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1524,10 +1541,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>-72.103713999999997</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>41.428814000000003</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1541,10 +1558,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="2">
-        <v>-72.103713999999997</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>41.428814000000003</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1558,10 +1575,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>-72.234275999999994</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>41.702294000000002</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1575,10 +1592,10 @@
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>-71.673242999999999</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>42.010123</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1591,11 +1608,11 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>-71.45</v>
-      </c>
-      <c r="D8">
-        <v>42.14</v>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1609,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>-71.617999999999995</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <v>42.249000000000002</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1626,10 +1643,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>-71.997519999999994</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>42.128785999999998</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1643,10 +1660,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>-71.190263999999999</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>41.712947</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1660,10 +1677,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>-71.190263999999999</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>41.712947</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1677,10 +1694,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>-71.016970999999998</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>41.972110999999998</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1694,10 +1711,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>-70.579564000000005</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <v>41.943286000000001</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1711,10 +1728,10 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>-70.510757999999996</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>41.769306</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1728,10 +1745,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>-71.268297000000004</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>42.131431999999997</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1745,10 +1762,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>-72.515928000000002</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>42.780124999999998</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1762,10 +1779,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>-71.340232</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2">
-        <v>42.902090000000001</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1779,10 +1796,10 @@
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>-71.524175</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2">
-        <v>42.570746</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1796,10 +1813,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>-70.20317</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2">
-        <v>43.931972999999999</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1813,10 +1830,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>-69.695417000000006</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>43.953372000000002</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1830,10 +1847,10 @@
         <v>5</v>
       </c>
       <c r="C22" s="2">
-        <v>-72.165385999999998</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>41.314960999999997</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1847,10 +1864,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="2">
-        <v>-71.190263999999999</v>
+        <v>0</v>
       </c>
       <c r="D23" s="2">
-        <v>41.712947</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1864,10 +1881,10 @@
         <v>12</v>
       </c>
       <c r="C24" s="2">
-        <v>-71.190263999999999</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
-        <v>41.712947</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1881,10 +1898,10 @@
         <v>14</v>
       </c>
       <c r="C25" s="2">
-        <v>-70.579564000000005</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>41.943286000000001</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1898,10 +1915,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="2">
-        <v>-70.510757999999996</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2">
-        <v>41.769306</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1915,10 +1932,10 @@
         <v>21</v>
       </c>
       <c r="C27" s="2">
-        <v>-69.695417000000006</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
-        <v>43.953372000000002</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1932,10 +1949,10 @@
         <v>17</v>
       </c>
       <c r="C28" s="2">
-        <v>-72.515928000000002</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2">
-        <v>42.780124999999998</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1949,10 +1966,10 @@
         <v>22</v>
       </c>
       <c r="C29" s="2">
-        <v>-72.468243999999999</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>42.610999999999997</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1966,10 +1983,10 @@
         <v>22</v>
       </c>
       <c r="C30" s="2">
-        <v>-72.468243999999999</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2">
-        <v>42.610999999999997</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1983,10 +2000,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="2">
-        <v>-72.446717000000007</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>42.194996000000003</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2000,10 +2017,10 @@
         <v>24</v>
       </c>
       <c r="C32" s="2">
-        <v>-72.557652000000004</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>41.769886999999997</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2017,10 +2034,10 @@
         <v>25</v>
       </c>
       <c r="C33" s="2">
-        <v>-72.568089000000001</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2">
-        <v>41.510188999999997</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2034,10 +2051,10 @@
         <v>26</v>
       </c>
       <c r="C34" s="2">
-        <v>-72.493520000000004</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2">
-        <v>41.487178999999998</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2051,10 +2068,10 @@
         <v>27</v>
       </c>
       <c r="C35" s="2">
-        <v>-72.755041000000006</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2">
-        <v>41.489305999999999</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2068,10 +2085,10 @@
         <v>28</v>
       </c>
       <c r="C36" s="2">
-        <v>-72.866840999999994</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2">
-        <v>41.587493000000002</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2085,10 +2102,10 @@
         <v>29</v>
       </c>
       <c r="C37" s="2">
-        <v>-72.501478000000006</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2">
-        <v>41.483213999999997</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2102,10 +2119,10 @@
         <v>30</v>
       </c>
       <c r="C38" s="2">
-        <v>-73.904285000000002</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2">
-        <v>42.609389</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -2119,10 +2136,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="2">
-        <v>-74.447930999999997</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2">
-        <v>42.439940999999997</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -2136,10 +2153,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="2">
-        <v>-73.848921000000004</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2">
-        <v>42.265022000000002</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -2153,10 +2170,10 @@
         <v>30</v>
       </c>
       <c r="C41" s="2">
-        <v>-73.904285000000002</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2">
-        <v>42.609389</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -2170,10 +2187,10 @@
         <v>33</v>
       </c>
       <c r="C42" s="2">
-        <v>-73.997077000000004</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>42.829667000000001</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -2187,10 +2204,10 @@
         <v>34</v>
       </c>
       <c r="C43" s="2">
-        <v>-73.754750000000001</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2">
-        <v>42.652881999999998</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -2204,10 +2221,10 @@
         <v>35</v>
       </c>
       <c r="C44" s="2">
-        <v>-75.228502000000006</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
-        <v>43.156953000000001</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -2220,11 +2237,11 @@
       <c r="B45" t="s">
         <v>36</v>
       </c>
-      <c r="C45">
-        <v>-75.23</v>
-      </c>
-      <c r="D45">
-        <v>43.16</v>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -2237,11 +2254,11 @@
       <c r="B46" t="s">
         <v>36</v>
       </c>
-      <c r="C46">
-        <v>-75.23</v>
-      </c>
-      <c r="D46">
-        <v>43.16</v>
+      <c r="C46" s="2">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -2255,10 +2272,10 @@
         <v>37</v>
       </c>
       <c r="C47" s="2">
-        <v>-74.956836999999993</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2">
-        <v>44.578277999999997</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -2271,11 +2288,11 @@
       <c r="B48" t="s">
         <v>38</v>
       </c>
-      <c r="C48">
-        <v>-74.81</v>
-      </c>
-      <c r="D48">
-        <v>45</v>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -2288,11 +2305,11 @@
       <c r="B49" t="s">
         <v>39</v>
       </c>
-      <c r="C49">
-        <v>-74.81</v>
-      </c>
-      <c r="D49">
-        <v>45</v>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -2306,10 +2323,10 @@
         <v>40</v>
       </c>
       <c r="C50" s="2">
-        <v>-73.485977000000005</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2">
-        <v>44.726106999999999</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -2323,10 +2340,10 @@
         <v>41</v>
       </c>
       <c r="C51" s="2">
-        <v>-76.170608999999999</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2">
-        <v>43.197740000000003</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2340,10 +2357,10 @@
         <v>41</v>
       </c>
       <c r="C52" s="2">
-        <v>-76.170608999999999</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2">
-        <v>43.197740000000003</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2357,10 +2374,10 @@
         <v>42</v>
       </c>
       <c r="C53" s="2">
-        <v>-77.632906000000006</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2">
-        <v>43.268532999999998</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2374,10 +2391,10 @@
         <v>42</v>
       </c>
       <c r="C54" s="2">
-        <v>-77.632906000000006</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2">
-        <v>43.268532999999998</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2391,10 +2408,10 @@
         <v>43</v>
       </c>
       <c r="C55" s="2">
-        <v>-79.526799999999994</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2">
-        <v>43.224530000000001</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -2408,10 +2425,10 @@
         <v>44</v>
       </c>
       <c r="C56" s="2">
-        <v>-79.526799999999994</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2">
-        <v>43.224530000000001</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -2425,10 +2442,10 @@
         <v>45</v>
       </c>
       <c r="C57" s="2">
-        <v>-78.932619000000003</v>
+        <v>0</v>
       </c>
       <c r="D57" s="2">
-        <v>42.971657999999998</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2442,10 +2459,10 @@
         <v>45</v>
       </c>
       <c r="C58" s="2">
-        <v>-78.932619000000003</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2">
-        <v>42.971657999999998</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -2459,10 +2476,10 @@
         <v>46</v>
       </c>
       <c r="C59" s="2">
-        <v>-78.768191000000002</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2">
-        <v>42.852195999999999</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2476,10 +2493,10 @@
         <v>46</v>
       </c>
       <c r="C60" s="2">
-        <v>-78.768191000000002</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2">
-        <v>42.852195999999999</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2493,10 +2510,10 @@
         <v>47</v>
       </c>
       <c r="C61" s="2">
-        <v>-79.347892000000002</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2">
-        <v>42.491275000000002</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -2510,10 +2527,10 @@
         <v>47</v>
       </c>
       <c r="C62" s="2">
-        <v>-79.347892000000002</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2">
-        <v>42.491275000000002</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2527,10 +2544,10 @@
         <v>48</v>
       </c>
       <c r="C63" s="2">
-        <v>-78.580493000000004</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2">
-        <v>42.832008000000002</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2544,10 +2561,10 @@
         <v>49</v>
       </c>
       <c r="C64" s="2">
-        <v>-77.709500000000006</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2">
-        <v>42.555719000000003</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -2561,10 +2578,10 @@
         <v>49</v>
       </c>
       <c r="C65" s="2">
-        <v>-77.709500000000006</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2">
-        <v>42.555719000000003</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -2578,10 +2595,10 @@
         <v>50</v>
       </c>
       <c r="C66" s="2">
-        <v>-76.950833000000003</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2">
-        <v>42.679167</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2595,10 +2612,10 @@
         <v>51</v>
       </c>
       <c r="C67" s="2">
-        <v>-76.770050999999995</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2">
-        <v>42.108947000000001</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2612,10 +2629,10 @@
         <v>52</v>
       </c>
       <c r="C68" s="2">
-        <v>-76.793825999999996</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2">
-        <v>42.102322000000001</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -2629,10 +2646,10 @@
         <v>53</v>
       </c>
       <c r="C69" s="2">
-        <v>-76.794259999999994</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2">
-        <v>42.103065000000001</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2646,10 +2663,10 @@
         <v>54</v>
       </c>
       <c r="C70" s="2">
-        <v>-75.928100000000001</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2">
-        <v>42.1081</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2663,10 +2680,10 @@
         <v>54</v>
       </c>
       <c r="C71" s="2">
-        <v>-75.928100000000001</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2">
-        <v>42.1081</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2680,10 +2697,10 @@
         <v>54</v>
       </c>
       <c r="C72" s="2">
-        <v>-75.928100000000001</v>
+        <v>0</v>
       </c>
       <c r="D72" s="2">
-        <v>42.1081</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2697,10 +2714,10 @@
         <v>55</v>
       </c>
       <c r="C73" s="2">
-        <v>-76.124722000000006</v>
+        <v>0</v>
       </c>
       <c r="D73" s="2">
-        <v>42.444167</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2714,10 +2731,10 @@
         <v>56</v>
       </c>
       <c r="C74" s="2">
-        <v>-73.832661999999999</v>
+        <v>0</v>
       </c>
       <c r="D74" s="2">
-        <v>41.741796000000001</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>3</v>
@@ -2731,10 +2748,10 @@
         <v>57</v>
       </c>
       <c r="C75" s="2">
-        <v>-73.800662000000003</v>
+        <v>0</v>
       </c>
       <c r="D75" s="2">
-        <v>41.192799999999998</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -2748,10 +2765,10 @@
         <v>58</v>
       </c>
       <c r="C76" s="2">
-        <v>-74.155935999999997</v>
+        <v>0</v>
       </c>
       <c r="D76" s="2">
-        <v>41.149980999999997</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>3</v>
@@ -2765,10 +2782,10 @@
         <v>58</v>
       </c>
       <c r="C77" s="2">
-        <v>-74.155935999999997</v>
+        <v>0</v>
       </c>
       <c r="D77" s="2">
-        <v>41.149980999999997</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -2782,10 +2799,10 @@
         <v>59</v>
       </c>
       <c r="C78" s="2">
-        <v>-73.947400000000002</v>
+        <v>0</v>
       </c>
       <c r="D78" s="2">
-        <v>41.264373999999997</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>3</v>
@@ -2799,10 +2816,10 @@
         <v>60</v>
       </c>
       <c r="C79" s="2">
-        <v>-73.972414000000001</v>
+        <v>0</v>
       </c>
       <c r="D79" s="2">
-        <v>40.728332999999999</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>3</v>
@@ -2815,11 +2832,11 @@
       <c r="B80" t="s">
         <v>61</v>
       </c>
-      <c r="C80">
-        <v>-73.94</v>
-      </c>
-      <c r="D80">
-        <v>40.76</v>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -2833,10 +2850,10 @@
         <v>62</v>
       </c>
       <c r="C81" s="2">
-        <v>-73.341182000000003</v>
+        <v>0</v>
       </c>
       <c r="D81" s="2">
-        <v>40.923642999999998</v>
+        <v>0</v>
       </c>
       <c r="E81">
         <v>3</v>
@@ -2850,10 +2867,10 @@
         <v>63</v>
       </c>
       <c r="C82" s="2">
-        <v>-74.194394000000003</v>
+        <v>0</v>
       </c>
       <c r="D82" s="2">
-        <v>40.616593999999999</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>3</v>
@@ -2866,11 +2883,11 @@
       <c r="B83" t="s">
         <v>64</v>
       </c>
-      <c r="C83">
-        <v>-74.19</v>
-      </c>
-      <c r="D83">
-        <v>40.56</v>
+      <c r="C83" s="2">
+        <v>0</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -2883,11 +2900,11 @@
       <c r="B84" t="s">
         <v>65</v>
       </c>
-      <c r="C84">
-        <v>-83.09</v>
-      </c>
-      <c r="D84">
-        <v>42.28</v>
+      <c r="C84" s="2">
+        <v>0</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -2900,11 +2917,11 @@
       <c r="B85" t="s">
         <v>66</v>
       </c>
-      <c r="C85">
-        <v>-83.09</v>
-      </c>
-      <c r="D85">
-        <v>42.28</v>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -2918,10 +2935,10 @@
         <v>67</v>
       </c>
       <c r="C86" s="2">
-        <v>-82.467338999999996</v>
+        <v>0</v>
       </c>
       <c r="D86" s="2">
-        <v>42.797207999999998</v>
+        <v>0</v>
       </c>
       <c r="E86">
         <v>4</v>
@@ -2935,10 +2952,10 @@
         <v>67</v>
       </c>
       <c r="C87" s="2">
-        <v>-82.467338999999996</v>
+        <v>0</v>
       </c>
       <c r="D87" s="2">
-        <v>42.797207999999998</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -2952,10 +2969,10 @@
         <v>67</v>
       </c>
       <c r="C88" s="2">
-        <v>-82.467338999999996</v>
+        <v>0</v>
       </c>
       <c r="D88" s="2">
-        <v>42.797207999999998</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>4</v>
@@ -2968,11 +2985,11 @@
       <c r="B89" t="s">
         <v>68</v>
       </c>
-      <c r="C89">
-        <v>-82.39</v>
-      </c>
-      <c r="D89">
-        <v>42.93</v>
+      <c r="C89" s="2">
+        <v>0</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
       </c>
       <c r="E89">
         <v>4</v>
@@ -2985,11 +3002,11 @@
       <c r="B90" t="s">
         <v>68</v>
       </c>
-      <c r="C90">
-        <v>-82.39</v>
-      </c>
-      <c r="D90">
-        <v>42.93</v>
+      <c r="C90" s="2">
+        <v>0</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -3003,10 +3020,10 @@
         <v>69</v>
       </c>
       <c r="C91" s="2">
-        <v>-82.337999999999994</v>
+        <v>0</v>
       </c>
       <c r="D91" s="2">
-        <v>42.908999999999999</v>
+        <v>0</v>
       </c>
       <c r="E91">
         <v>4</v>
@@ -3020,10 +3037,10 @@
         <v>70</v>
       </c>
       <c r="C92" s="2">
-        <v>-79.580269999999999</v>
+        <v>0</v>
       </c>
       <c r="D92" s="2">
-        <v>43.696770000000001</v>
+        <v>0</v>
       </c>
       <c r="E92">
         <v>4</v>
@@ -3037,10 +3054,10 @@
         <v>71</v>
       </c>
       <c r="C93" s="2">
-        <v>-80.911640000000006</v>
+        <v>0</v>
       </c>
       <c r="D93" s="2">
-        <v>46.595109999999998</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>4</v>
@@ -3054,10 +3071,10 @@
         <v>72</v>
       </c>
       <c r="C94" s="2">
-        <v>-79.820570000000004</v>
+        <v>0</v>
       </c>
       <c r="D94" s="2">
-        <v>44.34581</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>4</v>
@@ -3071,10 +3088,10 @@
         <v>73</v>
       </c>
       <c r="C95" s="2">
-        <v>-80.156580000000005</v>
+        <v>0</v>
       </c>
       <c r="D95" s="2">
-        <v>43.921970000000002</v>
+        <v>0</v>
       </c>
       <c r="E95">
         <v>4</v>
@@ -3088,10 +3105,10 @@
         <v>74</v>
       </c>
       <c r="C96" s="2">
-        <v>-77.697119000000001</v>
+        <v>0</v>
       </c>
       <c r="D96" s="2">
-        <v>46.181069000000001</v>
+        <v>0</v>
       </c>
       <c r="E96">
         <v>4</v>
@@ -3104,11 +3121,11 @@
       <c r="B97" t="s">
         <v>75</v>
       </c>
-      <c r="C97">
-        <v>-78.73</v>
-      </c>
-      <c r="D97">
-        <v>46.38</v>
+      <c r="C97" s="2">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
       </c>
       <c r="E97">
         <v>4</v>
@@ -3122,10 +3139,10 @@
         <v>76</v>
       </c>
       <c r="C98" s="2">
-        <v>-80.900409999999994</v>
+        <v>0</v>
       </c>
       <c r="D98" s="2">
-        <v>46.536610000000003</v>
+        <v>0</v>
       </c>
       <c r="E98">
         <v>4</v>
@@ -3138,11 +3155,11 @@
       <c r="B99" t="s">
         <v>77</v>
       </c>
-      <c r="C99">
-        <v>-74.801779999999994</v>
-      </c>
-      <c r="D99">
-        <v>45.038693000000002</v>
+      <c r="C99" s="2">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
       </c>
       <c r="E99">
         <v>4</v>
@@ -3156,10 +3173,10 @@
         <v>78</v>
       </c>
       <c r="C100" s="2">
-        <v>-74.686110999999997</v>
+        <v>0</v>
       </c>
       <c r="D100" s="2">
-        <v>45.058332999999998</v>
+        <v>0</v>
       </c>
       <c r="E100">
         <v>4</v>
@@ -3172,11 +3189,11 @@
       <c r="B101" t="s">
         <v>79</v>
       </c>
-      <c r="C101">
-        <v>-74.790000000000006</v>
-      </c>
-      <c r="D101">
-        <v>45.01</v>
+      <c r="C101" s="2">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
       </c>
       <c r="E101">
         <v>4</v>
@@ -3190,10 +3207,10 @@
         <v>80</v>
       </c>
       <c r="C102" s="2">
-        <v>-79.049373000000003</v>
+        <v>0</v>
       </c>
       <c r="D102" s="2">
-        <v>43.146388999999999</v>
+        <v>0</v>
       </c>
       <c r="E102">
         <v>4</v>
@@ -3206,11 +3223,11 @@
       <c r="B103" t="s">
         <v>81</v>
       </c>
-      <c r="C103">
-        <v>-79.048297000000005</v>
-      </c>
-      <c r="D103">
-        <v>43.142496999999999</v>
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
       </c>
       <c r="E103">
         <v>4</v>
@@ -3224,10 +3241,10 @@
         <v>82</v>
       </c>
       <c r="C104" s="2">
-        <v>-79.027696000000006</v>
+        <v>0</v>
       </c>
       <c r="D104" s="2">
-        <v>43.140112999999999</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>4</v>
@@ -3241,10 +3258,10 @@
         <v>83</v>
       </c>
       <c r="C105" s="2">
-        <v>-79.782966999999999</v>
+        <v>0</v>
       </c>
       <c r="D105" s="2">
-        <v>43.248930999999999</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>4</v>
@@ -3257,11 +3274,11 @@
       <c r="B106" t="s">
         <v>59</v>
       </c>
-      <c r="C106">
-        <v>-81.17</v>
-      </c>
-      <c r="D106">
-        <v>42.95</v>
+      <c r="C106" s="2">
+        <v>0</v>
+      </c>
+      <c r="D106" s="2">
+        <v>0</v>
       </c>
       <c r="E106">
         <v>4</v>
@@ -3275,10 +3292,10 @@
         <v>84</v>
       </c>
       <c r="C107" s="2">
-        <v>-79.933000000000007</v>
+        <v>0</v>
       </c>
       <c r="D107" s="2">
-        <v>43.216000000000001</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>4</v>
@@ -3292,10 +3309,10 @@
         <v>84</v>
       </c>
       <c r="C108" s="2">
-        <v>-79.933000000000007</v>
+        <v>0</v>
       </c>
       <c r="D108" s="2">
-        <v>43.216000000000001</v>
+        <v>0</v>
       </c>
       <c r="E108">
         <v>4</v>
@@ -3309,10 +3326,10 @@
         <v>85</v>
       </c>
       <c r="C109" s="2">
-        <v>-79.850832999999994</v>
+        <v>0</v>
       </c>
       <c r="D109" s="2">
-        <v>43.538611000000003</v>
+        <v>0</v>
       </c>
       <c r="E109">
         <v>4</v>
@@ -3326,10 +3343,10 @@
         <v>86</v>
       </c>
       <c r="C110" s="2">
-        <v>-79.734722000000005</v>
+        <v>0</v>
       </c>
       <c r="D110" s="2">
-        <v>43.406944000000003</v>
+        <v>0</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -3343,10 +3360,10 @@
         <v>87</v>
       </c>
       <c r="C111" s="2">
-        <v>-79.86448</v>
+        <v>0</v>
       </c>
       <c r="D111" s="2">
-        <v>43.33896</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>4</v>
@@ -3360,10 +3377,10 @@
         <v>88</v>
       </c>
       <c r="C112" s="2">
-        <v>-80.567580000000007</v>
+        <v>0</v>
       </c>
       <c r="D112" s="2">
-        <v>43.437220000000003</v>
+        <v>0</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -3377,10 +3394,10 @@
         <v>89</v>
       </c>
       <c r="C113" s="2">
-        <v>-82.0899</v>
+        <v>0</v>
       </c>
       <c r="D113" s="2">
-        <v>42.392589999999998</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -3394,10 +3411,10 @@
         <v>90</v>
       </c>
       <c r="C114" s="2">
-        <v>-82.915537</v>
+        <v>0</v>
       </c>
       <c r="D114" s="2">
-        <v>42.283752999999997</v>
+        <v>0</v>
       </c>
       <c r="E114">
         <v>4</v>
@@ -3411,10 +3428,10 @@
         <v>91</v>
       </c>
       <c r="C115" s="2">
-        <v>-82.462500000000006</v>
+        <v>0</v>
       </c>
       <c r="D115" s="2">
-        <v>42.928333000000002</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>5</v>
@@ -3428,10 +3445,10 @@
         <v>92</v>
       </c>
       <c r="C116" s="2">
-        <v>-82.424999999999997</v>
+        <v>0</v>
       </c>
       <c r="D116" s="2">
-        <v>42.851111000000003</v>
+        <v>0</v>
       </c>
       <c r="E116">
         <v>5</v>
@@ -3445,10 +3462,10 @@
         <v>93</v>
       </c>
       <c r="C117" s="2">
-        <v>-83.113138000000006</v>
+        <v>0</v>
       </c>
       <c r="D117" s="2">
-        <v>42.272303000000001</v>
+        <v>0</v>
       </c>
       <c r="E117">
         <v>5</v>
@@ -3462,10 +3479,10 @@
         <v>94</v>
       </c>
       <c r="C118" s="2">
-        <v>-83.283208000000002</v>
+        <v>0</v>
       </c>
       <c r="D118" s="2">
-        <v>42.731954999999999</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>5</v>
@@ -3479,10 +3496,10 @@
         <v>95</v>
       </c>
       <c r="C119" s="2">
-        <v>-83.465158000000002</v>
+        <v>0</v>
       </c>
       <c r="D119" s="2">
-        <v>42.310141000000002</v>
+        <v>0</v>
       </c>
       <c r="E119">
         <v>5</v>
@@ -3496,10 +3513,10 @@
         <v>96</v>
       </c>
       <c r="C120" s="2">
-        <v>-83.630263999999997</v>
+        <v>0</v>
       </c>
       <c r="D120" s="2">
-        <v>43.158470999999999</v>
+        <v>0</v>
       </c>
       <c r="E120">
         <v>5</v>
@@ -3513,10 +3530,10 @@
         <v>97</v>
       </c>
       <c r="C121" s="2">
-        <v>-85.609139999999996</v>
+        <v>0</v>
       </c>
       <c r="D121" s="2">
-        <v>42.436796999999999</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>5</v>
@@ -3530,10 +3547,10 @@
         <v>98</v>
       </c>
       <c r="C122" s="2">
-        <v>-83.008611000000002</v>
+        <v>0</v>
       </c>
       <c r="D122" s="2">
-        <v>42.717778000000003</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>5</v>
@@ -3547,10 +3564,10 @@
         <v>93</v>
       </c>
       <c r="C123" s="2">
-        <v>-83.113138000000006</v>
+        <v>0</v>
       </c>
       <c r="D123" s="2">
-        <v>42.272303000000001</v>
+        <v>0</v>
       </c>
       <c r="E123">
         <v>5</v>
@@ -3564,10 +3581,10 @@
         <v>99</v>
       </c>
       <c r="C124" s="2">
-        <v>-83.346396999999996</v>
+        <v>0</v>
       </c>
       <c r="D124" s="2">
-        <v>41.893566999999997</v>
+        <v>0</v>
       </c>
       <c r="E124">
         <v>5</v>
@@ -3580,11 +3597,11 @@
       <c r="B125" t="s">
         <v>100</v>
       </c>
-      <c r="C125">
-        <v>-74.739999999999995</v>
-      </c>
-      <c r="D125">
-        <v>40.54</v>
+      <c r="C125" s="2">
+        <v>0</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0</v>
       </c>
       <c r="E125">
         <v>6</v>
@@ -3597,11 +3614,11 @@
       <c r="B126" t="s">
         <v>101</v>
       </c>
-      <c r="C126">
-        <v>-74.209999999999994</v>
-      </c>
-      <c r="D126">
-        <v>40.619999999999997</v>
+      <c r="C126" s="2">
+        <v>0</v>
+      </c>
+      <c r="D126" s="2">
+        <v>0</v>
       </c>
       <c r="E126">
         <v>6</v>
@@ -3614,11 +3631,11 @@
       <c r="B127" t="s">
         <v>102</v>
       </c>
-      <c r="C127">
-        <v>-74.069999999999993</v>
-      </c>
-      <c r="D127">
-        <v>40.75</v>
+      <c r="C127" s="2">
+        <v>0</v>
+      </c>
+      <c r="D127" s="2">
+        <v>0</v>
       </c>
       <c r="E127">
         <v>6</v>
@@ -3632,10 +3649,10 @@
         <v>103</v>
       </c>
       <c r="C128" s="2">
-        <v>-75.583229000000003</v>
+        <v>0</v>
       </c>
       <c r="D128" s="2">
-        <v>40.483756</v>
+        <v>0</v>
       </c>
       <c r="E128">
         <v>6</v>
@@ -3649,10 +3666,10 @@
         <v>104</v>
       </c>
       <c r="C129" s="2">
-        <v>-75.309770999999998</v>
+        <v>0</v>
       </c>
       <c r="D129" s="2">
-        <v>40.171379999999999</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>6</v>
@@ -3666,10 +3683,10 @@
         <v>105</v>
       </c>
       <c r="C130" s="2">
-        <v>-75.731420999999997</v>
+        <v>0</v>
       </c>
       <c r="D130" s="2">
-        <v>39.633895000000003</v>
+        <v>0</v>
       </c>
       <c r="E130">
         <v>6</v>
@@ -3683,10 +3700,10 @@
         <v>106</v>
       </c>
       <c r="C131" s="2">
-        <v>-76.268500000000003</v>
+        <v>0</v>
       </c>
       <c r="D131" s="2">
-        <v>39.757955000000003</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>6</v>
@@ -3700,10 +3717,10 @@
         <v>107</v>
       </c>
       <c r="C132" s="2">
-        <v>-76.539006000000001</v>
+        <v>0</v>
       </c>
       <c r="D132" s="2">
-        <v>39.684601000000001</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>6</v>
@@ -3717,10 +3734,10 @@
         <v>108</v>
       </c>
       <c r="C133" s="2">
-        <v>-77.169062999999994</v>
+        <v>0</v>
       </c>
       <c r="D133" s="2">
-        <v>40.429178999999998</v>
+        <v>0</v>
       </c>
       <c r="E133">
         <v>6</v>
@@ -3734,10 +3751,10 @@
         <v>109</v>
       </c>
       <c r="C134" s="2">
-        <v>-79.059055999999998</v>
+        <v>0</v>
       </c>
       <c r="D134" s="2">
-        <v>40.389561999999998</v>
+        <v>0</v>
       </c>
       <c r="E134">
         <v>6</v>
@@ -3751,10 +3768,10 @@
         <v>110</v>
       </c>
       <c r="C135" s="2">
-        <v>-79.193297999999999</v>
+        <v>0</v>
       </c>
       <c r="D135" s="2">
-        <v>40.517090000000003</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>6</v>
@@ -3768,10 +3785,10 @@
         <v>111</v>
       </c>
       <c r="C136" s="2">
-        <v>-79.338532999999998</v>
+        <v>0</v>
       </c>
       <c r="D136" s="2">
-        <v>40.658043999999997</v>
+        <v>0</v>
       </c>
       <c r="E136">
         <v>6</v>
@@ -3785,10 +3802,10 @@
         <v>112</v>
       </c>
       <c r="C137" s="2">
-        <v>-80.363172000000006</v>
+        <v>0</v>
       </c>
       <c r="D137" s="2">
-        <v>41.937773999999997</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>6</v>
@@ -3802,10 +3819,10 @@
         <v>113</v>
       </c>
       <c r="C138" s="2">
-        <v>-80.048356999999996</v>
+        <v>0</v>
       </c>
       <c r="D138" s="2">
-        <v>42.069766999999999</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>6</v>
@@ -3819,10 +3836,10 @@
         <v>114</v>
       </c>
       <c r="C139" s="2">
-        <v>-76.247500000000002</v>
+        <v>0</v>
       </c>
       <c r="D139" s="2">
-        <v>42.083610999999998</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>6</v>
@@ -3835,11 +3852,11 @@
       <c r="B140" t="s">
         <v>115</v>
       </c>
-      <c r="C140">
-        <v>-82.13</v>
-      </c>
-      <c r="D140">
-        <v>38.909999999999997</v>
+      <c r="C140" s="2">
+        <v>0</v>
+      </c>
+      <c r="D140" s="2">
+        <v>0</v>
       </c>
       <c r="E140">
         <v>6</v>
@@ -3853,13 +3870,18 @@
         <v>116</v>
       </c>
       <c r="C141" s="2">
-        <v>-80.048056000000003</v>
+        <v>0</v>
       </c>
       <c r="D141" s="2">
-        <v>42.069443999999997</v>
+        <v>0</v>
       </c>
       <c r="E141">
         <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C142" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
